--- a/model/N2O_Properties.xlsx
+++ b/model/N2O_Properties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://etsmtl365.sharepoint.com/sites/msteams_6785ce/Documents partages/Propulsion/R&amp;D Moteur Hybride/Projet MATLAB/Simulink_Moteur/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Desktop\RockETS\Rocket\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{3ACB40D0-2020-493C-B7BD-32B370546F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D4C722E-D0E2-4BA7-B512-07128C6E107D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F642C8-FE2C-4B0E-A7EB-F9039D0C779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <rPr>
@@ -135,15 +135,18 @@
       <t>[J/kg]</t>
     </r>
   </si>
+  <si>
+    <t>#</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_)_ ;_ * \(#,##0.00\)_ ;_ * &quot;-&quot;??_)_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -232,7 +235,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -273,7 +276,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -289,1352 +292,8 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>dHvap</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Courbe de saturation N2O'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>87730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92290</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>273600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>345700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>431500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>532300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>649900</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>785800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>941700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1119000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1321000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1547000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1801000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2083000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2397000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2744000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3127000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3547000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4007000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4510000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5060000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5660000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6315000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7033000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7251000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Courbe de saturation N2O'!$G$2:$G$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>377000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>377000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>371000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>365000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>359000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>353000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>346000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>340000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>333000</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>326000</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>318000</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>310000</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>302000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>294000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>285000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>276000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>266000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>255000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>244000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>232000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>219000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>204000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>188000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>169000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>147000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>117000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>64900.000000000007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5FE8-460C-BFB5-E179F64E3069}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1516846256"/>
-        <c:axId val="1516845424"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Pression</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Courbe de saturation N2O'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>87730</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92290</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>101325</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124200</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>164200</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>213600</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>273600</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>345700</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>431500</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>532300</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>649900</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>785800</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>941700</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1119000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1321000</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1547000</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1801000</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2083000</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2397000</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2744000</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3127000</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3547000</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>4007000</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4510000</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5060000</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5660000</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6315000</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7033000</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7251000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Courbe de saturation N2O'!$A$2:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0.00</c:formatCode>
-                <c:ptCount val="29"/>
-                <c:pt idx="0">
-                  <c:v>182.32999999999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>183.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>184.69</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>188.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>193.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>198.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>203.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>208.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>213.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>218.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>223.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>228.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>233.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>238.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>243.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>248.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>253.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>258.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>263.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>268.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>273.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>278.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>283.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>288.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>293.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>298.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>303.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>308.14999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>309.57</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5FE8-460C-BFB5-E179F64E3069}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1503772960"/>
-        <c:axId val="1379254320"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1516846256"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1516845424"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1516845424"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1516846256"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1379254320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:min val="180"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1503772960"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1503772960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0.00" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1379254320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>53340</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>9769</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479793DB-E849-4446-820A-FF96FFE1CC94}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1954,13 +613,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -1969,10 +628,10 @@
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="32.65" customHeight="1">
+    <row r="1" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1995,7 +654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="26.25" customHeight="1">
+    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>182.32999999999998</v>
       </c>
@@ -2021,7 +680,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:10" ht="14.25" customHeight="1">
+    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>183.14999999999998</v>
       </c>
@@ -2047,7 +706,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1">
+    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>184.69</v>
       </c>
@@ -2073,7 +732,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1">
+    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>188.14999999999998</v>
       </c>
@@ -2099,7 +758,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1">
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>193.14999999999998</v>
       </c>
@@ -2125,7 +784,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1">
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>198.14999999999998</v>
       </c>
@@ -2150,8 +809,11 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-    </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1">
+      <c r="Q7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>203.14999999999998</v>
       </c>
@@ -2177,7 +839,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1">
+    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>208.14999999999998</v>
       </c>
@@ -2203,7 +865,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>213.14999999999998</v>
       </c>
@@ -2229,7 +891,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1">
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>218.14999999999998</v>
       </c>
@@ -2255,7 +917,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1">
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>223.14999999999998</v>
       </c>
@@ -2281,7 +943,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1">
+    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>228.14999999999998</v>
       </c>
@@ -2307,7 +969,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1">
+    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>233.14999999999998</v>
       </c>
@@ -2333,7 +995,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1">
+    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>238.14999999999998</v>
       </c>
@@ -2359,7 +1021,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1">
+    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>243.14999999999998</v>
       </c>
@@ -2385,7 +1047,7 @@
       <c r="I16" s="11"/>
       <c r="J16" s="11"/>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>248.14999999999998</v>
       </c>
@@ -2411,7 +1073,7 @@
       <c r="I17" s="11"/>
       <c r="J17" s="11"/>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1">
+    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>253.14999999999998</v>
       </c>
@@ -2437,7 +1099,7 @@
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1">
+    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>258.14999999999998</v>
       </c>
@@ -2463,7 +1125,7 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1">
+    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>263.14999999999998</v>
       </c>
@@ -2489,7 +1151,7 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1">
+    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>268.14999999999998</v>
       </c>
@@ -2515,7 +1177,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1">
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>273.14999999999998</v>
       </c>
@@ -2541,7 +1203,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1">
+    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>278.14999999999998</v>
       </c>
@@ -2567,7 +1229,7 @@
       <c r="I23" s="11"/>
       <c r="J23" s="11"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1">
+    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>283.14999999999998</v>
       </c>
@@ -2593,7 +1255,7 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1">
+    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>288.14999999999998</v>
       </c>
@@ -2619,7 +1281,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1">
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>293.14999999999998</v>
       </c>
@@ -2645,7 +1307,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1">
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>298.14999999999998</v>
       </c>
@@ -2671,7 +1333,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="11"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1">
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>303.14999999999998</v>
       </c>
@@ -2697,7 +1359,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1">
+    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>308.14999999999998</v>
       </c>
@@ -2723,7 +1385,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1">
+    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>309.57</v>
       </c>
@@ -2752,22 +1414,10 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e871639-4d03-4815-a297-7bb177073573">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002D6281A9682AF4A98F873C035B5E8DC" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="282a728d77070331ab7eb8d7a35c54d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e871639-4d03-4815-a297-7bb177073573" xmlns:ns3="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="988ca22d43628ba535d429bd9e26d0be" ns2:_="" ns3:_="">
     <xsd:import namespace="8e871639-4d03-4815-a297-7bb177073573"/>
@@ -3010,6 +1660,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e871639-4d03-4815-a297-7bb177073573">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3020,13 +1681,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2C330A-B4AB-461D-A1A7-AF2BB71633F4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E34B677-0C62-4709-9ED2-D921F0DD1944}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8e871639-4d03-4815-a297-7bb177073573"/>
+    <ds:schemaRef ds:uri="db291fd8-3cfd-4be4-91ca-3fbeb332f44f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E34B677-0C62-4709-9ED2-D921F0DD1944}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2C330A-B4AB-461D-A1A7-AF2BB71633F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db291fd8-3cfd-4be4-91ca-3fbeb332f44f"/>
+    <ds:schemaRef ds:uri="8e871639-4d03-4815-a297-7bb177073573"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27AC8AC7-74CA-4DED-BB6F-357BDD77ABC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27AC8AC7-74CA-4DED-BB6F-357BDD77ABC5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/model/N2O_Properties.xlsx
+++ b/model/N2O_Properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Desktop\RockETS\Rocket\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quent\Desktop\RockETS\Rockets\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F642C8-FE2C-4B0E-A7EB-F9039D0C779A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AE09EF-BA79-45DE-AF91-2F8CA005EFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <r>
       <rPr>
@@ -134,9 +134,6 @@
       </rPr>
       <t>[J/kg]</t>
     </r>
-  </si>
-  <si>
-    <t>#</t>
   </si>
 </sst>
 </file>
@@ -613,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -629,9 +626,10 @@
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" customWidth="1"/>
     <col min="8" max="8" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="32.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -654,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>182.32999999999998</v>
       </c>
@@ -680,7 +678,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
-    <row r="3" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>183.14999999999998</v>
       </c>
@@ -706,7 +704,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>184.69</v>
       </c>
@@ -732,7 +730,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>188.14999999999998</v>
       </c>
@@ -758,7 +756,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>193.14999999999998</v>
       </c>
@@ -784,7 +782,7 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>198.14999999999998</v>
       </c>
@@ -809,11 +807,8 @@
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="Q7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>203.14999999999998</v>
       </c>
@@ -839,7 +834,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>208.14999999999998</v>
       </c>
@@ -865,7 +860,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>213.14999999999998</v>
       </c>
@@ -891,7 +886,7 @@
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
     </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>218.14999999999998</v>
       </c>
@@ -917,7 +912,7 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
     </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>223.14999999999998</v>
       </c>
@@ -943,7 +938,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>228.14999999999998</v>
       </c>
@@ -969,7 +964,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>233.14999999999998</v>
       </c>
@@ -995,7 +990,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
     </row>
-    <row r="15" spans="1:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>238.14999999999998</v>
       </c>
@@ -1021,7 +1016,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
     </row>
-    <row r="16" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>243.14999999999998</v>
       </c>
@@ -1418,6 +1413,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e871639-4d03-4815-a297-7bb177073573">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010002D6281A9682AF4A98F873C035B5E8DC" ma:contentTypeVersion="16" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="282a728d77070331ab7eb8d7a35c54d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8e871639-4d03-4815-a297-7bb177073573" xmlns:ns3="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="988ca22d43628ba535d429bd9e26d0be" ns2:_="" ns3:_="">
     <xsd:import namespace="8e871639-4d03-4815-a297-7bb177073573"/>
@@ -1660,17 +1666,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="db291fd8-3cfd-4be4-91ca-3fbeb332f44f" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="8e871639-4d03-4815-a297-7bb177073573">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1681,6 +1676,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2C330A-B4AB-461D-A1A7-AF2BB71633F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="db291fd8-3cfd-4be4-91ca-3fbeb332f44f"/>
+    <ds:schemaRef ds:uri="8e871639-4d03-4815-a297-7bb177073573"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E34B677-0C62-4709-9ED2-D921F0DD1944}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1699,17 +1705,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB2C330A-B4AB-461D-A1A7-AF2BB71633F4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="db291fd8-3cfd-4be4-91ca-3fbeb332f44f"/>
-    <ds:schemaRef ds:uri="8e871639-4d03-4815-a297-7bb177073573"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27AC8AC7-74CA-4DED-BB6F-357BDD77ABC5}">
   <ds:schemaRefs>
